--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_23.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_23_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1104949.344063043</v>
+        <v>1102560.847849037</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12866823.29189678</v>
+        <v>12912224.81445308</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11034078.77426271</v>
+        <v>11026898.61496043</v>
       </c>
     </row>
     <row r="11">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>219.75491779526</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,7 +668,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>77.93023358740018</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>12.40418031676363</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>61.36917500887014</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -911,10 +911,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>238.1458344391882</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>92.47445699814396</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -981,7 +981,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554007</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>72.0880274467719</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>14.57567088453384</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1069,10 +1069,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,10 +1099,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>140.3578935194463</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>274.7944255145748</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>72.08802744677224</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1303,7 +1303,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>153.2230134806</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.0023302739422</v>
+        <v>359.551749875465</v>
       </c>
       <c r="H11" t="n">
-        <v>285.1920064569006</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I11" t="n">
-        <v>6.131939404317592</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>37.4267830241056</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9216203285411</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.507549269963</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.84596484644652</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
-        <v>1.880502973709326</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>119.0063113323295</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T12" t="n">
-        <v>188.7337879321259</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7548052458927</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109.0246241107863</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,7 +1537,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1893431629256</v>
+        <v>152.6742629539646</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1658,13 +1658,13 @@
         <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>148.9055307001842</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>277.4607323328455</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,16 +1765,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.52184781776208</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>47.82729976400307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560526</v>
+        <v>386.2379386560545</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>15.13235790428686</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>95.81917536083792</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,19 +2047,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2141,7 +2141,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2251,10 +2251,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>107.4021082756232</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892451</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>93.07916359105462</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>64.36993339924462</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187875</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2612,7 +2612,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>106.3048907942298</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,13 +2950,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>22.10695458833897</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>23.05950344416363</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>101.573036851206</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,7 +3196,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>3.006892987830515</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428179</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>65.25773758188275</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>126.6321535627866</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>25.52471385612679</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179546</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2198.17958617321</v>
+        <v>2012.898941548398</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1643.936424607986</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1285.670726001236</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>899.8824734029915</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,7 +4325,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912088</v>
@@ -4340,40 +4340,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.784676410101</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149022</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y2" t="n">
-        <v>2198.17958617321</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080131</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4462,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>66.5121164321834</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>523.9612719922607</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>373.8446325799249</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>225.9315389975318</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>79.04159149962143</v>
       </c>
       <c r="G4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4510,28 +4510,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>417.6040489720652</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>128.5011820977088</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>66.5121164321834</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>66.5121164321834</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y4" t="n">
-        <v>66.5121164321834</v>
+        <v>692.8974549201675</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2768.786057602115</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="W5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="X5" t="n">
-        <v>3121.906610713899</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="6">
@@ -4620,13 +4620,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
         <v>458.9189605332749</v>
@@ -4641,16 +4641,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4659,13 +4659,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>639.3706644025392</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>639.3706644025392</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>639.3706644025392</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="Y7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181842</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1381.278680221567</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1012.316163281155</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>654.0504646744046</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>268.2622120761603</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F8" t="n">
-        <v>261.3167113269569</v>
+        <v>821.1650657389511</v>
       </c>
       <c r="G8" t="n">
-        <v>250.2846652123574</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912086</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001387</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060169</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V8" t="n">
-        <v>2884.252265792694</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="W8" t="n">
-        <v>2531.48361052258</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="X8" t="n">
-        <v>2158.0178522615</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="Y8" t="n">
-        <v>1767.878520285688</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228021</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031491</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158142</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>666.2025176122974</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>666.2025176122974</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>516.0858781999616</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>368.1727846175685</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574644</v>
+        <v>221.2828371196581</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962283</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181845</v>
+        <v>666.2025176122974</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181845</v>
+        <v>666.2025176122974</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181845</v>
+        <v>666.2025176122974</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181845</v>
+        <v>666.2025176122974</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2321.345614895473</v>
+        <v>2266.424947555043</v>
       </c>
       <c r="C11" t="n">
-        <v>1952.383097955061</v>
+        <v>1897.462430614632</v>
       </c>
       <c r="D11" t="n">
-        <v>1594.117399348311</v>
+        <v>1539.196732007881</v>
       </c>
       <c r="E11" t="n">
-        <v>1208.329146750067</v>
+        <v>1153.408479409637</v>
       </c>
       <c r="F11" t="n">
-        <v>797.3432419604594</v>
+        <v>742.4225746200293</v>
       </c>
       <c r="G11" t="n">
-        <v>383.1994740069824</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H11" t="n">
-        <v>95.12674021213326</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I11" t="n">
-        <v>88.93286202595388</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J11" t="n">
-        <v>355.0642012408562</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K11" t="n">
-        <v>804.6646095371448</v>
+        <v>841.9378825128747</v>
       </c>
       <c r="L11" t="n">
-        <v>1399.335434274257</v>
+        <v>1461.457663018649</v>
       </c>
       <c r="M11" t="n">
-        <v>2092.690745039464</v>
+        <v>2182.462224957686</v>
       </c>
       <c r="N11" t="n">
-        <v>2801.879077992345</v>
+        <v>2919.747202874792</v>
       </c>
       <c r="O11" t="n">
-        <v>3458.210249338815</v>
+        <v>3602.609239333932</v>
       </c>
       <c r="P11" t="n">
-        <v>3983.87271846576</v>
+        <v>4150.91518802128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4330.450594432748</v>
+        <v>4514.497374127287</v>
       </c>
       <c r="R11" t="n">
-        <v>4446.643101297694</v>
+        <v>4640.581161304025</v>
       </c>
       <c r="S11" t="n">
-        <v>4408.838269960213</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T11" t="n">
-        <v>4408.838269960213</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4155.382087810171</v>
+        <v>4100.461420469742</v>
       </c>
       <c r="V11" t="n">
-        <v>3824.319200466601</v>
+        <v>3769.398533126171</v>
       </c>
       <c r="W11" t="n">
-        <v>3471.550545196486</v>
+        <v>3416.629877856057</v>
       </c>
       <c r="X11" t="n">
-        <v>3098.084786935407</v>
+        <v>3043.164119594977</v>
       </c>
       <c r="Y11" t="n">
-        <v>2707.945454959595</v>
+        <v>2653.024787619165</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5610180783359</v>
+        <v>942.6241165038822</v>
       </c>
       <c r="C12" t="n">
-        <v>767.1079887972089</v>
+        <v>768.1710872227552</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1735791359577</v>
+        <v>619.2366775615039</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9361241305021</v>
+        <v>459.9992225560484</v>
       </c>
       <c r="F12" t="n">
-        <v>312.401566157387</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G12" t="n">
-        <v>176.5353547735861</v>
+        <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>90.83235997919563</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I12" t="n">
-        <v>88.93286202595388</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J12" t="n">
-        <v>88.93286202595388</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="K12" t="n">
-        <v>405.8369936976663</v>
+        <v>423.3203657894392</v>
       </c>
       <c r="L12" t="n">
-        <v>405.8369936976663</v>
+        <v>423.3203657894392</v>
       </c>
       <c r="M12" t="n">
-        <v>803.3442847689648</v>
+        <v>1015.338720041567</v>
       </c>
       <c r="N12" t="n">
-        <v>1403.52809287961</v>
+        <v>1637.434683440903</v>
       </c>
       <c r="O12" t="n">
-        <v>1930.359226677666</v>
+        <v>2184.311158441097</v>
       </c>
       <c r="P12" t="n">
-        <v>2333.854591560528</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.661360958479</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.661360958479</v>
+        <v>2552.77562977024</v>
       </c>
       <c r="S12" t="n">
-        <v>2433.452965673298</v>
+        <v>2434.163925027597</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.812775842868</v>
+        <v>2243.870218930011</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.777619028835</v>
+        <v>2015.840717454381</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.625510797092</v>
+        <v>1780.688609222638</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.388154068891</v>
+        <v>1526.451252494437</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.536653863358</v>
+        <v>1318.599752288904</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.776355098404</v>
+        <v>1110.83945352395</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>404.7589924517712</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="C13" t="n">
-        <v>235.8228095238642</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="D13" t="n">
-        <v>235.8228095238642</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="E13" t="n">
-        <v>235.8228095238642</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="F13" t="n">
-        <v>88.93286202595388</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="G13" t="n">
-        <v>88.93286202595388</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="H13" t="n">
-        <v>88.93286202595388</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="I13" t="n">
-        <v>88.93286202595388</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="J13" t="n">
-        <v>129.6213668148507</v>
+        <v>138.4938672061383</v>
       </c>
       <c r="K13" t="n">
-        <v>275.3675175970676</v>
+        <v>292.4462654954959</v>
       </c>
       <c r="L13" t="n">
-        <v>491.7782096570529</v>
+        <v>519.3581290524912</v>
       </c>
       <c r="M13" t="n">
-        <v>723.2112244304541</v>
+        <v>761.8631567965994</v>
       </c>
       <c r="N13" t="n">
-        <v>956.9988052967143</v>
+        <v>1006.459482912289</v>
       </c>
       <c r="O13" t="n">
-        <v>1152.626386925559</v>
+        <v>1212.070690225095</v>
       </c>
       <c r="P13" t="n">
-        <v>1300.957607583601</v>
+        <v>1368.944627380399</v>
       </c>
       <c r="Q13" t="n">
-        <v>1348.066678243823</v>
+        <v>1421.96823213986</v>
       </c>
       <c r="R13" t="n">
-        <v>1348.066678243823</v>
+        <v>1421.96823213986</v>
       </c>
       <c r="S13" t="n">
-        <v>1348.066678243823</v>
+        <v>1238.79804187879</v>
       </c>
       <c r="T13" t="n">
-        <v>1348.066678243823</v>
+        <v>1019.119259593172</v>
       </c>
       <c r="U13" t="n">
-        <v>1058.986533634807</v>
+        <v>864.9028323669453</v>
       </c>
       <c r="V13" t="n">
-        <v>804.30204542892</v>
+        <v>610.2183441610584</v>
       </c>
       <c r="W13" t="n">
-        <v>514.8848753919594</v>
+        <v>320.8011741240978</v>
       </c>
       <c r="X13" t="n">
-        <v>514.8848753919594</v>
+        <v>92.8116232260805</v>
       </c>
       <c r="Y13" t="n">
-        <v>514.8848753919594</v>
+        <v>92.8116232260805</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905843</v>
+        <v>2317.224468905844</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5261,25 +5261,25 @@
         <v>1589.996253358682</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.208000760438</v>
+        <v>1204.208000760437</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2220959708302</v>
+        <v>793.22209597083</v>
       </c>
       <c r="G14" t="n">
-        <v>379.2389888872364</v>
+        <v>379.2389888872365</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251948</v>
+        <v>372.3074987251939</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128761</v>
+        <v>841.9378825128758</v>
       </c>
       <c r="L14" t="n">
         <v>1461.457663018651</v>
@@ -5297,31 +5297,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304027</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070876</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750195</v>
+        <v>4404.704271100993</v>
       </c>
       <c r="U14" t="n">
-        <v>4100.461420469745</v>
+        <v>4151.260941820542</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3820.198054476972</v>
       </c>
       <c r="W14" t="n">
         <v>3467.429399206857</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3093.963640945778</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2703.824308969966</v>
       </c>
     </row>
     <row r="15">
@@ -5343,34 +5343,34 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J15" t="n">
         <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>570.9683475412853</v>
+        <v>503.5649492480907</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.700680385037</v>
+        <v>994.297282091842</v>
       </c>
       <c r="M15" t="n">
-        <v>1653.719034637164</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="N15" t="n">
-        <v>2275.814998036501</v>
+        <v>1586.31563634397</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2133.192111344164</v>
       </c>
       <c r="P15" t="n">
         <v>2552.77562977024</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>92.81162322608056</v>
+        <v>660.3046581565568</v>
       </c>
       <c r="C16" t="n">
-        <v>92.81162322608056</v>
+        <v>491.3684752286499</v>
       </c>
       <c r="D16" t="n">
-        <v>92.81162322608056</v>
+        <v>341.2518358163142</v>
       </c>
       <c r="E16" t="n">
-        <v>92.81162322608056</v>
+        <v>193.338742233921</v>
       </c>
       <c r="F16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608054</v>
       </c>
       <c r="J16" t="n">
         <v>138.4938672061384</v>
@@ -5461,25 +5461,25 @@
         <v>1421.96823213986</v>
       </c>
       <c r="S16" t="n">
-        <v>1421.96823213986</v>
+        <v>1238.798041878791</v>
       </c>
       <c r="T16" t="n">
-        <v>1202.289449854242</v>
+        <v>1238.798041878791</v>
       </c>
       <c r="U16" t="n">
-        <v>913.2132361689693</v>
+        <v>949.7218281935175</v>
       </c>
       <c r="V16" t="n">
-        <v>658.5287479630824</v>
+        <v>949.7218281935175</v>
       </c>
       <c r="W16" t="n">
-        <v>369.1115779261218</v>
+        <v>660.3046581565568</v>
       </c>
       <c r="X16" t="n">
-        <v>141.1220270281045</v>
+        <v>660.3046581565568</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.81162322608056</v>
+        <v>660.3046581565568</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349513</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>733.455065717131</v>
+        <v>740.0371963456324</v>
       </c>
       <c r="C19" t="n">
-        <v>564.5188827892241</v>
+        <v>571.1010134177255</v>
       </c>
       <c r="D19" t="n">
-        <v>414.4022433768882</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>414.4022433768882</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>377.3235922040269</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>606.8722318538282</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1028.881934584863</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1276.192266568854</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>1484.310297575616</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>1643.329255468274</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>1697.837961401199</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>1697.837961401199</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>1697.837961401199</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487568</v>
+        <v>1478.236496424141</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831766</v>
+        <v>1478.236496424141</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625879</v>
+        <v>1478.236496424141</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588918</v>
+        <v>1188.81932638718</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.896109690901</v>
+        <v>960.8297754891626</v>
       </c>
       <c r="Y19" t="n">
-        <v>915.1035305473707</v>
+        <v>740.0371963456324</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,22 +5738,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,37 +5762,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,25 +5823,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>983.3556038098229</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C22" t="n">
-        <v>814.419420881916</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D22" t="n">
-        <v>664.3027814695802</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E22" t="n">
-        <v>516.3896878871872</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F22" t="n">
-        <v>369.499740389277</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>202.303641104157</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5935,25 +5935,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1613.78619868161</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1385.796647783593</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1165.004068640063</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="23">
@@ -5987,25 +5987,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,22 +6063,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5477693179088</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5477693179088</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,49 +6148,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6203,61 +6203,61 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452613</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>634.4644740681601</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C28" t="n">
-        <v>465.5282911402533</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D28" t="n">
-        <v>465.5282911402533</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>317.6151975578601</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
         <v>826.1405381797745</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1036.90551804193</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y28" t="n">
-        <v>816.1129388983999</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="29">
@@ -6452,22 +6452,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>869.9745311434715</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E31" t="n">
         <v>549.6145409888043</v>
@@ -6622,7 +6622,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6631,40 +6631,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.405126015259</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.415575117241</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.622995973711</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="32">
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.9487421954784</v>
+        <v>580.8993044876652</v>
       </c>
       <c r="C34" t="n">
-        <v>491.0125592675715</v>
+        <v>411.9631215597583</v>
       </c>
       <c r="D34" t="n">
-        <v>491.0125592675715</v>
+        <v>411.9631215597583</v>
       </c>
       <c r="E34" t="n">
-        <v>343.0994656851784</v>
+        <v>264.0500279773652</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851784</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235161</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258102</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.4315576023</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396413</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359452</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>983.340348461435</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>762.5477693179049</v>
       </c>
     </row>
     <row r="35">
@@ -6926,10 +6926,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192593</v>
@@ -6938,19 +6938,19 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7011,22 +7011,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400708</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121639</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121639</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121639</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121639</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138406</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703105</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400708</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121639</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121639</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121639</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121639</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782948</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N40" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138406</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703105</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>733.4550657171305</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>564.5188827892237</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>414.402243376888</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>266.489149794495</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>119.5992022965848</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>119.5992022965848</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>915.1035305473703</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7646,10 +7646,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188002</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908933</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908933</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908933</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908934</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7816,10 +7816,10 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166296</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189237</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533435</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327548</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290587</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925701</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490399</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -9322,25 +9322,25 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>106.7437663446525</v>
+        <v>47.73533018323073</v>
       </c>
       <c r="L19" t="n">
-        <v>162.4747015415544</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>178.5096609094456</v>
       </c>
       <c r="N19" t="n">
-        <v>171.8177168444618</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>135.0065633140411</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.34295837775146</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>50.29152613729264</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>50.81025655345709</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>199.8933168658096</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>70.80735607115103</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23425,16 +23425,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.6133991430958</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>141.0883229563035</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>83.95015354161607</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>70.38873914821356</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>182.5818591928743</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.7868375990034</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.5111885944558</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23546,13 +23546,13 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>50.29152613728999</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>50.2915261372894</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.89920020516917</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -23701,25 +23701,25 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>170.7573535880917</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.663381206337363e-13</v>
+        <v>-9.094947017729282e-13</v>
       </c>
     </row>
     <row r="18">
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>133.4831151139255</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>49.60187266209333</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,19 +23935,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23981,7 +23981,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -24139,10 +24139,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>32.89260457060064</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24175,10 +24175,10 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>125.5054897610402</v>
       </c>
     </row>
     <row r="23">
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>84.24553961896774</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24455,7 +24455,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.985254656928683e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24500,7 +24500,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,7 +24664,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>119.4047645948074</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>145.1398665102889</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>123.3744592024055</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24929,7 +24929,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>78.25894333073126</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,7 +25084,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>142.4141550351007</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25157,7 +25157,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194217</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>221.2652607547083</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194215</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>125.5054897610414</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>114.7699989900971</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.22910392194214</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>894137.7707485891</v>
+        <v>915051.845909584</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>962425.9658310405</v>
+        <v>931069.5404820953</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>962425.9658310408</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>962425.9658310408</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>962425.9658310406</v>
+        <v>962425.9658310405</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>962425.9658310406</v>
+        <v>962425.9658310404</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>962425.9658310405</v>
+        <v>962425.9658310406</v>
       </c>
     </row>
     <row r="14">
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.017671963</v>
       </c>
       <c r="C2" t="n">
         <v>472099.0176719631</v>
       </c>
       <c r="D2" t="n">
-        <v>472099.0176719631</v>
+        <v>472099.0176719629</v>
       </c>
       <c r="E2" t="n">
-        <v>437556.7814301604</v>
+        <v>447791.3288493707</v>
       </c>
       <c r="F2" t="n">
-        <v>447791.3288493708</v>
+        <v>447791.3288493709</v>
       </c>
       <c r="G2" t="n">
-        <v>464109.2948217537</v>
+        <v>453874.7474025432</v>
       </c>
       <c r="H2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="I2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="J2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="K2" t="n">
         <v>464109.2948217537</v>
       </c>
       <c r="L2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217536</v>
       </c>
       <c r="M2" t="n">
         <v>464109.2948217537</v>
@@ -26350,7 +26350,7 @@
         <v>464109.2948217537</v>
       </c>
       <c r="O2" t="n">
-        <v>464109.2948217537</v>
+        <v>464109.2948217538</v>
       </c>
       <c r="P2" t="n">
         <v>464109.2948217537</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>267417.2124874771</v>
+        <v>313680.0588189858</v>
       </c>
       <c r="F3" t="n">
-        <v>45165.83095899787</v>
+        <v>3.100233243458205e-10</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557892</v>
+        <v>11167.23623557928</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,13 +26396,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>69841.74356187471</v>
+        <v>81924.2786383293</v>
       </c>
       <c r="N3" t="n">
-        <v>11875.16680579285</v>
+        <v>1.11379904410569e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224748</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405253</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="E4" t="n">
-        <v>729.6930833181793</v>
+        <v>754.8555874581931</v>
       </c>
       <c r="F4" t="n">
         <v>754.8555874581932</v>
       </c>
       <c r="G4" t="n">
-        <v>14826.69604186736</v>
+        <v>4357.104940383016</v>
       </c>
       <c r="H4" t="n">
         <v>14826.69604186736</v>
@@ -26442,7 +26442,7 @@
         <v>14826.69604186736</v>
       </c>
       <c r="K4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="L4" t="n">
         <v>14826.69604186736</v>
@@ -26476,13 +26476,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>96331.7585069036</v>
+        <v>100142.1285138384</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1058176.412721075</v>
+        <v>-1058176.412721076</v>
       </c>
       <c r="C6" t="n">
-        <v>270568.3330065173</v>
+        <v>270568.3330065176</v>
       </c>
       <c r="D6" t="n">
-        <v>270568.3330065173</v>
+        <v>270568.333006517</v>
       </c>
       <c r="E6" t="n">
-        <v>73078.1173524615</v>
+        <v>33108.60032551189</v>
       </c>
       <c r="F6" t="n">
-        <v>301728.5137890764</v>
+        <v>346788.6591444976</v>
       </c>
       <c r="G6" t="n">
-        <v>336992.8327204003</v>
+        <v>337148.6404449806</v>
       </c>
       <c r="H6" t="n">
-        <v>348160.0689559792</v>
+        <v>348125.3310305435</v>
       </c>
       <c r="I6" t="n">
-        <v>348160.0689559792</v>
+        <v>348125.3310305437</v>
       </c>
       <c r="J6" t="n">
-        <v>130628.8665587018</v>
+        <v>130594.1286332659</v>
       </c>
       <c r="K6" t="n">
-        <v>348160.0689559792</v>
+        <v>348125.3310305435</v>
       </c>
       <c r="L6" t="n">
-        <v>348160.0689559794</v>
+        <v>348125.3310305434</v>
       </c>
       <c r="M6" t="n">
-        <v>278318.3253941045</v>
+        <v>266201.0523922142</v>
       </c>
       <c r="N6" t="n">
-        <v>336284.9021501864</v>
+        <v>348125.3310305434</v>
       </c>
       <c r="O6" t="n">
-        <v>345136.7709787546</v>
+        <v>345102.0330533189</v>
       </c>
       <c r="P6" t="n">
-        <v>348160.0689559793</v>
+        <v>348125.3310305435</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1318.476301246727</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
         <v>1358.041048716386</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
-        <v>1111.660775324423</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26966,13 +26966,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>228.6996006534293</v>
+        <v>268.2643481230878</v>
       </c>
       <c r="F3" t="n">
-        <v>39.56474746965841</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
-        <v>9.934451625288148</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27018,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>280.2593199221309</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="F4" t="n">
-        <v>48.48451500158353</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,13 +27042,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>280.2593199221309</v>
+        <v>328.7438349237143</v>
       </c>
       <c r="N4" t="n">
-        <v>48.48451500158353</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>280.2593199221309</v>
+        <v>328.7438349237141</v>
       </c>
       <c r="N4" t="n">
-        <v>48.48451500158353</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364211</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>145.5179739757475</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>328.9458121543113</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>153.6216279422646</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>190.7684683149579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>12.8493375197138</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>277.2566436803251</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27701,7 +27701,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27740,7 +27740,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7439527351654</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>131.8582917620353</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27789,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,10 +27819,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>154.2498708678742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>111.4435131414788</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>107.7439527351651</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>12.80279477842822</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28068,7 +28068,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28861,7 +28861,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -29013,7 +29013,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-3.959144123655279e-12</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30402,7 +30402,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-9.426533627750662e-13</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,37 +31592,37 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026452</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837928</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31631,7 +31631,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31680,16 +31680,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
         <v>300.7247737883114</v>
@@ -31698,19 +31698,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780294</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.30040724119287</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>54.2827956588665</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
-        <v>204.3439501660883</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>449.8654390871937</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>674.2316776068881</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>836.4440157145445</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>930.7051329901083</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>945.7649150641475</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>893.0589905595359</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>762.2051867925868</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>572.384352467367</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>332.9517063645819</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
-        <v>120.7830300086826</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.2025326983218</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4240325792954295</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.835967893247678</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>27.38947939004995</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>97.64187702629067</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>457.9466224811393</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>543.6565501556531</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>737.5879829021669</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>674.748904846521</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>541.5454830535851</v>
+        <v>273.2705663475585</v>
       </c>
       <c r="Q12" t="n">
-        <v>362.0088138819317</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>52.67685977150837</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.43094076269568</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1865768350820841</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.377580215362951</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H13" t="n">
-        <v>21.13884955113607</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>71.50032138564221</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
-        <v>168.0949212261606</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K13" t="n">
-        <v>276.2315922939864</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>353.4813349276882</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>372.6965059409396</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>363.8346160473143</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>336.0601562587561</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
-        <v>287.5575198653517</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q13" t="n">
-        <v>199.0899214882558</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R13" t="n">
-        <v>106.9046522289559</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>41.43473884409796</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
-        <v>10.15875182927806</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U13" t="n">
-        <v>0.129686193565252</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32078,7 +32078,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>403.6044129846258</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
@@ -32087,13 +32087,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169084</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,40 +32224,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32266,7 +32266,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32312,22 +32312,22 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,7 +32339,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32406,7 +32406,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32546,7 +32546,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,31 +32777,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33050,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33512,7 +33512,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319853</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34144,13 +34144,13 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34366,7 +34366,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O7" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597851</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004595</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L10" t="n">
         <v>157.2826706286436</v>
@@ -35343,13 +35343,13 @@
         <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014217</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>268.8195345605075</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>454.1418265619075</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>600.6776007445574</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>700.3588997628356</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>716.3518514675566</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>662.9607791378492</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>530.9721910373173</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.0786625929175</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>117.3661685504498</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>320.1051835067803</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>401.5225162336349</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>606.2462708188336</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>532.1526604020765</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>407.5710756392549</v>
+        <v>139.2961589332282</v>
       </c>
       <c r="Q12" t="n">
-        <v>222.0270397959102</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0994997867645</v>
+        <v>46.14368078793716</v>
       </c>
       <c r="K13" t="n">
-        <v>147.218334123451</v>
+        <v>155.5074730195532</v>
       </c>
       <c r="L13" t="n">
-        <v>218.59665864645</v>
+        <v>229.2039025828236</v>
       </c>
       <c r="M13" t="n">
-        <v>233.7707219933345</v>
+        <v>244.9545734788971</v>
       </c>
       <c r="N13" t="n">
-        <v>236.1490715820811</v>
+        <v>247.0669960764542</v>
       </c>
       <c r="O13" t="n">
-        <v>197.6036178069133</v>
+        <v>207.6880881947534</v>
       </c>
       <c r="P13" t="n">
-        <v>149.8295158162041</v>
+        <v>158.4585223790947</v>
       </c>
       <c r="Q13" t="n">
-        <v>47.58491985881</v>
+        <v>53.55919672672837</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>265.7629740102668</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
@@ -35735,13 +35735,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>279.758213872464</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35960,22 +35960,22 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>205.3241522482132</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>231.8673127775771</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>249.8084161454457</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>210.2202333401631</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>160.6252099925839</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>55.05929892214695</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,16 +36440,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37160,7 +37160,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060414</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875408</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295242</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37792,13 +37792,13 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38014,7 +38014,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
